--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E285F-4075-4036-8170-88831E5CE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651E8A0-2736-4F60-8AD6-3C6A69982E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35310" yWindow="1860" windowWidth="21130" windowHeight="12930" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="42020" yWindow="5430" windowWidth="25050" windowHeight="15270" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="254">
   <si>
     <t>Price</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Buyback</t>
   </si>
 </sst>
 </file>
@@ -1121,16 +1127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69082</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>3628</xdr:rowOff>
+      <xdr:rowOff>81781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>34193</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69082</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>112346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1145,8 +1151,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14937851" y="3628"/>
-          <a:ext cx="0" cy="12930834"/>
+          <a:off x="15563082" y="81781"/>
+          <a:ext cx="0" cy="13092027"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1179,7 +1185,7 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>26737</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1779,18 +1785,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>56</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="24" t="s">
@@ -1914,7 +1920,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1934,7 @@
       <c r="H8" s="26"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>103</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>102</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
@@ -1994,7 +2000,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>112</v>
       </c>
@@ -2012,7 +2018,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>114</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>106</v>
       </c>
@@ -2048,7 +2054,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>113</v>
       </c>
@@ -2066,7 +2072,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
@@ -2081,7 +2087,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>168</v>
       </c>
@@ -2096,7 +2102,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>171</v>
       </c>
@@ -2111,7 +2117,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>223</v>
       </c>
@@ -2129,7 +2135,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>248</v>
       </c>
@@ -2147,7 +2153,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -2165,7 +2171,7 @@
       </c>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2175,17 +2181,17 @@
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>178</v>
       </c>
@@ -2204,31 +2210,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:BD73"/>
+  <dimension ref="A1:BD75"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY8" sqref="AY8"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="3"/>
-    <col min="42" max="42" width="9.42578125" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.1796875" style="3"/>
+    <col min="42" max="42" width="9.453125" customWidth="1"/>
+    <col min="43" max="43" width="8.81640625" customWidth="1"/>
     <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -2420,15 +2426,15 @@
       </c>
       <c r="X3" s="5">
         <f t="shared" ref="X3:Z3" si="9">+X6/3.2</f>
-        <v>85.9375</v>
+        <v>88.078437499999993</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>46.875</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AP3" s="2">
         <f>+AP6/3.2</f>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="AQ3" s="2">
         <f>+AQ6/3.2</f>
-        <v>203.125</v>
+        <v>314.64093750000001</v>
       </c>
       <c r="AR3">
         <v>800</v>
@@ -2469,7 +2475,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -2486,65 +2492,65 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:Z4" si="10">+W4+X3</f>
-        <v>803.125</v>
+        <v>805.26593749999995</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="10"/>
-        <v>803.125</v>
+        <v>852.14093749999995</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>803.125</v>
+        <v>914.64093749999995</v>
       </c>
       <c r="AP4" s="2">
         <v>600</v>
       </c>
       <c r="AQ4" s="2">
         <f>+AP4+AQ3</f>
-        <v>803.125</v>
+        <v>914.64093750000006</v>
       </c>
       <c r="AR4" s="2">
         <f>+AQ4+AR3</f>
-        <v>1603.125</v>
+        <v>1714.6409375000001</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
-        <v>2403.125</v>
+        <v>2514.6409375000003</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" si="11"/>
-        <v>3203.125</v>
+        <v>3314.6409375000003</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="11"/>
-        <v>4003.125</v>
+        <v>4114.6409375000003</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" si="11"/>
-        <v>4803.125</v>
+        <v>4914.6409375000003</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" si="11"/>
-        <v>5603.125</v>
+        <v>5714.6409375000003</v>
       </c>
       <c r="AX4" s="2">
         <f t="shared" si="11"/>
-        <v>6403.125</v>
+        <v>6514.6409375000003</v>
       </c>
       <c r="AY4" s="2">
         <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
-        <v>7203.125</v>
+        <v>7314.6409375000003</v>
       </c>
       <c r="AZ4" s="2">
         <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
-        <v>8003.125</v>
+        <v>8114.6409375000003</v>
       </c>
       <c r="BA4" s="2">
         <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
-        <v>8803.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+        <v>8914.6409375000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -2555,7 +2561,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -2599,13 +2605,13 @@
         <v>375</v>
       </c>
       <c r="X6" s="2">
-        <v>275</v>
+        <v>281.851</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO6" s="2">
         <f>SUM(O6:R6)</f>
@@ -2617,7 +2623,7 @@
       </c>
       <c r="AQ6" s="2">
         <f>SUM(W6:Z6)</f>
-        <v>650</v>
+        <v>1006.851</v>
       </c>
       <c r="AR6" s="2">
         <v>50</v>
@@ -2650,7 +2656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -2696,8 +2702,7 @@
         <v>237</v>
       </c>
       <c r="X7" s="2">
-        <f>+T7</f>
-        <v>238.827</v>
+        <v>231.27199999999999</v>
       </c>
       <c r="Y7" s="2">
         <f>+U7</f>
@@ -2745,50 +2750,50 @@
       </c>
       <c r="AQ7" s="2">
         <f t="shared" ref="AQ7" si="18">SUM(W7:Z7)</f>
-        <v>978.62699999999995</v>
+        <v>971.072</v>
       </c>
       <c r="AR7" s="2">
         <f>+AQ7*0.99</f>
-        <v>968.84072999999989</v>
+        <v>961.36127999999997</v>
       </c>
       <c r="AS7" s="2">
         <f t="shared" ref="AS7:BA7" si="19">+AR7*0.99</f>
-        <v>959.1523226999999</v>
+        <v>951.74766719999991</v>
       </c>
       <c r="AT7" s="2">
         <f t="shared" si="19"/>
-        <v>949.56079947299986</v>
+        <v>942.23019052799987</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" si="19"/>
-        <v>940.06519147826987</v>
+        <v>932.80788862271982</v>
       </c>
       <c r="AV7" s="2">
         <f t="shared" si="19"/>
-        <v>930.66453956348721</v>
+        <v>923.4798097364926</v>
       </c>
       <c r="AW7" s="2">
         <f t="shared" si="19"/>
-        <v>921.35789416785235</v>
+        <v>914.24501163912771</v>
       </c>
       <c r="AX7" s="2">
         <f t="shared" si="19"/>
-        <v>912.14431522617383</v>
+        <v>905.10256152273644</v>
       </c>
       <c r="AY7" s="2">
         <f t="shared" si="19"/>
-        <v>903.02287207391214</v>
+        <v>896.05153590750911</v>
       </c>
       <c r="AZ7" s="2">
         <f t="shared" si="19"/>
-        <v>893.99264335317298</v>
+        <v>887.09102054843402</v>
       </c>
       <c r="BA7" s="2">
         <f t="shared" si="19"/>
-        <v>885.05271691964128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>878.22011034294962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
@@ -2812,7 +2817,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -2836,7 +2841,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2860,7 +2865,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2919,15 +2924,15 @@
       </c>
       <c r="X11" s="2">
         <f>+X7+X6</f>
-        <v>513.827</v>
+        <v>513.12300000000005</v>
       </c>
       <c r="Y11" s="2">
         <f>+Y7+Y6</f>
-        <v>248.8</v>
+        <v>398.8</v>
       </c>
       <c r="Z11" s="2">
         <f>+Z7+Z6</f>
-        <v>254</v>
+        <v>454</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" ref="AO11:AP11" si="20">+AO7+AO6</f>
@@ -2939,50 +2944,50 @@
       </c>
       <c r="AQ11" s="2">
         <f>+AQ7+AQ6</f>
-        <v>1628.627</v>
+        <v>1977.923</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ref="AR11:BA11" si="21">+AR7+AR6</f>
-        <v>1018.8407299999999</v>
+        <v>1011.36128</v>
       </c>
       <c r="AS11" s="2">
         <f t="shared" si="21"/>
-        <v>1059.1523226999998</v>
+        <v>1051.7476671999998</v>
       </c>
       <c r="AT11" s="2">
         <f t="shared" si="21"/>
-        <v>1099.5607994729999</v>
+        <v>1092.2301905279999</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" si="21"/>
-        <v>1140.0651914782698</v>
+        <v>1132.8078886227199</v>
       </c>
       <c r="AV11" s="2">
         <f t="shared" si="21"/>
-        <v>1180.6645395634873</v>
+        <v>1173.4798097364926</v>
       </c>
       <c r="AW11" s="2">
         <f t="shared" si="21"/>
-        <v>1221.3578941678525</v>
+        <v>1214.2450116391278</v>
       </c>
       <c r="AX11" s="2">
         <f t="shared" si="21"/>
-        <v>1212.1443152261738</v>
+        <v>1205.1025615227363</v>
       </c>
       <c r="AY11" s="2">
         <f t="shared" si="21"/>
-        <v>1203.0228720739121</v>
+        <v>1196.0515359075091</v>
       </c>
       <c r="AZ11" s="2">
         <f t="shared" si="21"/>
-        <v>1193.992643353173</v>
+        <v>1187.091020548434</v>
       </c>
       <c r="BA11" s="2">
         <f t="shared" si="21"/>
-        <v>1185.0527169196412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1178.2201103429497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3031,8 +3036,19 @@
       <c r="W12" s="2">
         <v>133.333</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="2">
+        <v>97.968000000000004</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>AVERAGE(U12:X12)</f>
+        <v>72.239249999999998</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>AVERAGE(V12:Y12)</f>
+        <v>80.948812500000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3095,15 +3111,15 @@
       </c>
       <c r="X13" s="6">
         <f t="shared" si="22"/>
-        <v>513.827</v>
+        <v>611.09100000000001</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="22"/>
-        <v>248.8</v>
+        <v>471.03925000000004</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="22"/>
-        <v>254</v>
+        <v>534.94881250000003</v>
       </c>
       <c r="AH13" s="6">
         <v>5.4</v>
@@ -3136,50 +3152,50 @@
       </c>
       <c r="AQ13" s="6">
         <f t="shared" si="23"/>
-        <v>1628.627</v>
+        <v>1977.923</v>
       </c>
       <c r="AR13" s="6">
         <f t="shared" ref="AR13:BA13" si="24">+AR11+AR12</f>
-        <v>1018.8407299999999</v>
+        <v>1011.36128</v>
       </c>
       <c r="AS13" s="6">
         <f t="shared" si="24"/>
-        <v>1059.1523226999998</v>
+        <v>1051.7476671999998</v>
       </c>
       <c r="AT13" s="6">
         <f t="shared" si="24"/>
-        <v>1099.5607994729999</v>
+        <v>1092.2301905279999</v>
       </c>
       <c r="AU13" s="6">
         <f t="shared" si="24"/>
-        <v>1140.0651914782698</v>
+        <v>1132.8078886227199</v>
       </c>
       <c r="AV13" s="6">
         <f t="shared" si="24"/>
-        <v>1180.6645395634873</v>
+        <v>1173.4798097364926</v>
       </c>
       <c r="AW13" s="6">
         <f t="shared" si="24"/>
-        <v>1221.3578941678525</v>
+        <v>1214.2450116391278</v>
       </c>
       <c r="AX13" s="6">
         <f t="shared" si="24"/>
-        <v>1212.1443152261738</v>
+        <v>1205.1025615227363</v>
       </c>
       <c r="AY13" s="6">
         <f t="shared" si="24"/>
-        <v>1203.0228720739121</v>
+        <v>1196.0515359075091</v>
       </c>
       <c r="AZ13" s="6">
         <f t="shared" si="24"/>
-        <v>1193.992643353173</v>
+        <v>1187.091020548434</v>
       </c>
       <c r="BA13" s="6">
         <f t="shared" si="24"/>
-        <v>1185.0527169196412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1178.2201103429497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3229,16 +3245,15 @@
         <v>137.56399999999999</v>
       </c>
       <c r="X14" s="2">
-        <f>+X13*0.18</f>
-        <v>92.488860000000003</v>
+        <v>152.55799999999999</v>
       </c>
       <c r="Y14" s="2">
         <f>+Y13*0.18</f>
-        <v>44.783999999999999</v>
+        <v>84.787064999999998</v>
       </c>
       <c r="Z14" s="2">
         <f>+Z13*0.18</f>
-        <v>45.72</v>
+        <v>96.290786249999996</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" ref="AO14:AO17" si="25">SUM(O14:R14)</f>
@@ -3250,50 +3265,50 @@
       </c>
       <c r="AQ14" s="2">
         <f t="shared" ref="AQ14" si="27">SUM(W14:Z14)</f>
-        <v>320.55686000000003</v>
+        <v>471.19985124999994</v>
       </c>
       <c r="AR14" s="2">
         <f>+AR13-AR15</f>
-        <v>152.82610950000003</v>
+        <v>151.70419200000003</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" ref="AS14:BA14" si="28">+AS13-AS15</f>
-        <v>158.87284840500001</v>
+        <v>157.76215007999997</v>
       </c>
       <c r="AT14" s="2">
         <f t="shared" si="28"/>
-        <v>164.93411992095002</v>
+        <v>163.83452857919997</v>
       </c>
       <c r="AU14" s="2">
         <f t="shared" si="28"/>
-        <v>171.00977872174053</v>
+        <v>169.92118329340803</v>
       </c>
       <c r="AV14" s="2">
         <f t="shared" si="28"/>
-        <v>177.09968093452312</v>
+        <v>176.02197146047388</v>
       </c>
       <c r="AW14" s="2">
         <f t="shared" si="28"/>
-        <v>183.20368412517792</v>
+        <v>182.13675174586911</v>
       </c>
       <c r="AX14" s="2">
         <f t="shared" si="28"/>
-        <v>181.82164728392604</v>
+        <v>180.76538422841054</v>
       </c>
       <c r="AY14" s="2">
         <f t="shared" si="28"/>
-        <v>180.45343081108683</v>
+        <v>179.40773038612645</v>
       </c>
       <c r="AZ14" s="2">
         <f t="shared" si="28"/>
-        <v>179.098896502976</v>
+        <v>178.06365308226509</v>
       </c>
       <c r="BA14" s="2">
         <f t="shared" si="28"/>
-        <v>177.75790753794615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>176.73301655144246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3356,15 +3371,15 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="30"/>
-        <v>421.33814000000001</v>
+        <v>458.53300000000002</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="30"/>
-        <v>204.01600000000002</v>
+        <v>386.25218500000005</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="30"/>
-        <v>208.28</v>
+        <v>438.65802625000003</v>
       </c>
       <c r="AO15" s="2">
         <f>+AO13-AO14</f>
@@ -3376,50 +3391,50 @@
       </c>
       <c r="AQ15" s="2">
         <f>+AQ13-AQ14</f>
-        <v>1308.0701399999998</v>
+        <v>1506.7231487500001</v>
       </c>
       <c r="AR15" s="2">
         <f>+AR13*0.85</f>
-        <v>866.01462049999986</v>
+        <v>859.65708799999993</v>
       </c>
       <c r="AS15" s="2">
         <f t="shared" ref="AS15:BA15" si="31">+AS13*0.85</f>
-        <v>900.27947429499977</v>
+        <v>893.98551711999983</v>
       </c>
       <c r="AT15" s="2">
         <f t="shared" si="31"/>
-        <v>934.62667955204984</v>
+        <v>928.3956619487999</v>
       </c>
       <c r="AU15" s="2">
         <f t="shared" si="31"/>
-        <v>969.05541275652922</v>
+        <v>962.88670532931189</v>
       </c>
       <c r="AV15" s="2">
         <f t="shared" si="31"/>
-        <v>1003.5648586289642</v>
+        <v>997.45783827601872</v>
       </c>
       <c r="AW15" s="2">
         <f t="shared" si="31"/>
-        <v>1038.1542100426745</v>
+        <v>1032.1082598932587</v>
       </c>
       <c r="AX15" s="2">
         <f t="shared" si="31"/>
-        <v>1030.3226679422478</v>
+        <v>1024.3371772943258</v>
       </c>
       <c r="AY15" s="2">
         <f t="shared" si="31"/>
-        <v>1022.5694412628253</v>
+        <v>1016.6438055213827</v>
       </c>
       <c r="AZ15" s="2">
         <f t="shared" si="31"/>
-        <v>1014.893746850197</v>
+        <v>1009.0273674661689</v>
       </c>
       <c r="BA15" s="2">
         <f t="shared" si="31"/>
-        <v>1007.294809381695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1001.4870937915073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3469,6 +3484,9 @@
         <f>749.154-500</f>
         <v>249.154</v>
       </c>
+      <c r="X16" s="2">
+        <v>204.392</v>
+      </c>
       <c r="AO16" s="2">
         <f t="shared" si="25"/>
         <v>877.38699999999994</v>
@@ -3478,7 +3496,7 @@
         <v>780.20299999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -3527,6 +3545,9 @@
       <c r="W17" s="2">
         <v>133.62899999999999</v>
       </c>
+      <c r="X17" s="2">
+        <v>137.89699999999999</v>
+      </c>
       <c r="AO17" s="2">
         <f t="shared" si="25"/>
         <v>481.87099999999998</v>
@@ -3580,7 +3601,7 @@
         <v>194.72714579952725</v>
       </c>
     </row>
-    <row r="18" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3643,7 +3664,7 @@
       </c>
       <c r="X18" s="2">
         <f>+X17+X16</f>
-        <v>0</v>
+        <v>342.28899999999999</v>
       </c>
       <c r="Y18" s="2">
         <f>+Y17+Y16</f>
@@ -3706,7 +3727,7 @@
         <v>194.72714579952725</v>
       </c>
     </row>
-    <row r="19" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3769,15 +3790,15 @@
       </c>
       <c r="X19" s="2">
         <f>+X15-X18</f>
-        <v>421.33814000000001</v>
+        <v>116.24400000000003</v>
       </c>
       <c r="Y19" s="2">
         <f>+Y15-Y18</f>
-        <v>204.01600000000002</v>
+        <v>386.25218500000005</v>
       </c>
       <c r="Z19" s="2">
         <f>+Z15-Z18</f>
-        <v>208.28</v>
+        <v>438.65802625000003</v>
       </c>
       <c r="AO19" s="2">
         <f>+AO15-AO18</f>
@@ -3789,50 +3810,50 @@
       </c>
       <c r="AQ19" s="2">
         <f>+AQ15-AQ18</f>
-        <v>749.59813999999983</v>
+        <v>948.25114875000008</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" ref="AR19" si="47">+AR15-AR18</f>
-        <v>363.38982049999987</v>
+        <v>357.03228799999994</v>
       </c>
       <c r="AS19" s="2">
         <f t="shared" ref="AS19" si="48">+AS15-AS18</f>
-        <v>447.91715429499976</v>
+        <v>441.62319711999982</v>
       </c>
       <c r="AT19" s="2">
         <f t="shared" ref="AT19" si="49">+AT15-AT18</f>
-        <v>527.50059155204985</v>
+        <v>521.26957394879992</v>
       </c>
       <c r="AU19" s="2">
         <f t="shared" ref="AU19" si="50">+AU15-AU18</f>
-        <v>602.64193355652924</v>
+        <v>596.4732261293118</v>
       </c>
       <c r="AV19" s="2">
         <f t="shared" ref="AV19" si="51">+AV15-AV18</f>
-        <v>673.79272734896415</v>
+        <v>667.68570699601867</v>
       </c>
       <c r="AW19" s="2">
         <f t="shared" ref="AW19" si="52">+AW15-AW18</f>
-        <v>741.35929189067451</v>
+        <v>735.31334174125868</v>
       </c>
       <c r="AX19" s="2">
         <f t="shared" ref="AX19" si="53">+AX15-AX18</f>
-        <v>763.20724160544773</v>
+        <v>757.22175095752573</v>
       </c>
       <c r="AY19" s="2">
         <f t="shared" ref="AY19" si="54">+AY15-AY18</f>
-        <v>782.16555755970523</v>
+        <v>776.23992181826259</v>
       </c>
       <c r="AZ19" s="2">
         <f t="shared" ref="AZ19" si="55">+AZ15-AZ18</f>
-        <v>798.53025151738893</v>
+        <v>792.66387213336088</v>
       </c>
       <c r="BA19" s="2">
         <f t="shared" ref="BA19" si="56">+BA15-BA18</f>
-        <v>812.56766358216782</v>
-      </c>
-    </row>
-    <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>806.75994799197997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3881,6 +3902,9 @@
       <c r="W20" s="2">
         <v>0</v>
       </c>
+      <c r="X20" s="2">
+        <v>38.061</v>
+      </c>
       <c r="AO20" s="2">
         <f t="shared" ref="AO20" si="57">SUM(O20:R20)</f>
         <v>33.055</v>
@@ -3890,7 +3914,7 @@
         <v>42.692999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3953,15 +3977,15 @@
       </c>
       <c r="X21" s="2">
         <f>+X19+X20</f>
-        <v>421.33814000000001</v>
+        <v>154.30500000000004</v>
       </c>
       <c r="Y21" s="2">
         <f>+Y19+Y20</f>
-        <v>204.01600000000002</v>
+        <v>386.25218500000005</v>
       </c>
       <c r="Z21" s="2">
         <f>+Z19+Z20</f>
-        <v>208.28</v>
+        <v>438.65802625000003</v>
       </c>
       <c r="AO21" s="2">
         <f>+AO19+AO20</f>
@@ -3973,50 +3997,50 @@
       </c>
       <c r="AQ21" s="2">
         <f>+AQ19+AQ20</f>
-        <v>749.59813999999983</v>
+        <v>948.25114875000008</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" ref="AR21:BA21" si="60">+AR19+AR20</f>
-        <v>363.38982049999987</v>
+        <v>357.03228799999994</v>
       </c>
       <c r="AS21" s="2">
         <f t="shared" si="60"/>
-        <v>447.91715429499976</v>
+        <v>441.62319711999982</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" si="60"/>
-        <v>527.50059155204985</v>
+        <v>521.26957394879992</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" si="60"/>
-        <v>602.64193355652924</v>
+        <v>596.4732261293118</v>
       </c>
       <c r="AV21" s="2">
         <f t="shared" si="60"/>
-        <v>673.79272734896415</v>
+        <v>667.68570699601867</v>
       </c>
       <c r="AW21" s="2">
         <f t="shared" si="60"/>
-        <v>741.35929189067451</v>
+        <v>735.31334174125868</v>
       </c>
       <c r="AX21" s="2">
         <f t="shared" si="60"/>
-        <v>763.20724160544773</v>
+        <v>757.22175095752573</v>
       </c>
       <c r="AY21" s="2">
         <f t="shared" si="60"/>
-        <v>782.16555755970523</v>
+        <v>776.23992181826259</v>
       </c>
       <c r="AZ21" s="2">
         <f t="shared" si="60"/>
-        <v>798.53025151738893</v>
+        <v>792.66387213336088</v>
       </c>
       <c r="BA21" s="2">
         <f t="shared" si="60"/>
-        <v>812.56766358216782</v>
-      </c>
-    </row>
-    <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>806.75994799197997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -4084,50 +4108,50 @@
       </c>
       <c r="AQ22" s="2">
         <f>+AQ21*0.2</f>
-        <v>149.91962799999996</v>
+        <v>189.65022975000002</v>
       </c>
       <c r="AR22" s="2">
         <f t="shared" ref="AR22:BA22" si="63">+AR21*0.2</f>
-        <v>72.677964099999983</v>
+        <v>71.406457599999996</v>
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="63"/>
-        <v>89.583430858999961</v>
+        <v>88.324639423999969</v>
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="63"/>
-        <v>105.50011831040997</v>
+        <v>104.25391478975999</v>
       </c>
       <c r="AU22" s="2">
         <f t="shared" si="63"/>
-        <v>120.52838671130586</v>
+        <v>119.29464522586237</v>
       </c>
       <c r="AV22" s="2">
         <f t="shared" si="63"/>
-        <v>134.75854546979284</v>
+        <v>133.53714139920373</v>
       </c>
       <c r="AW22" s="2">
         <f t="shared" si="63"/>
-        <v>148.27185837813491</v>
+        <v>147.06266834825175</v>
       </c>
       <c r="AX22" s="2">
         <f t="shared" si="63"/>
-        <v>152.64144832108954</v>
+        <v>151.44435019150515</v>
       </c>
       <c r="AY22" s="2">
         <f t="shared" si="63"/>
-        <v>156.43311151194106</v>
+        <v>155.24798436365253</v>
       </c>
       <c r="AZ22" s="2">
         <f t="shared" si="63"/>
-        <v>159.70605030347781</v>
+        <v>158.53277442667218</v>
       </c>
       <c r="BA22" s="2">
         <f t="shared" si="63"/>
-        <v>162.51353271643359</v>
-      </c>
-    </row>
-    <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161.35198959839602</v>
+      </c>
+    </row>
+    <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -4190,15 +4214,15 @@
       </c>
       <c r="X23" s="2">
         <f>+X21-X22</f>
-        <v>421.33814000000001</v>
+        <v>154.30500000000004</v>
       </c>
       <c r="Y23" s="2">
         <f>+Y21-Y22</f>
-        <v>204.01600000000002</v>
+        <v>386.25218500000005</v>
       </c>
       <c r="Z23" s="2">
         <f>+Z21-Z22</f>
-        <v>208.28</v>
+        <v>438.65802625000003</v>
       </c>
       <c r="AO23" s="2">
         <f>+AO21-AO22</f>
@@ -4210,50 +4234,50 @@
       </c>
       <c r="AQ23" s="2">
         <f>+AQ21-AQ22</f>
-        <v>599.67851199999984</v>
+        <v>758.60091900000009</v>
       </c>
       <c r="AR23" s="2">
         <f t="shared" ref="AR23:BA23" si="65">+AR21-AR22</f>
-        <v>290.71185639999987</v>
+        <v>285.62583039999993</v>
       </c>
       <c r="AS23" s="2">
         <f t="shared" si="65"/>
-        <v>358.33372343599979</v>
+        <v>353.29855769599988</v>
       </c>
       <c r="AT23" s="2">
         <f t="shared" si="65"/>
-        <v>422.0004732416399</v>
+        <v>417.01565915903996</v>
       </c>
       <c r="AU23" s="2">
         <f t="shared" si="65"/>
-        <v>482.11354684522337</v>
+        <v>477.17858090344942</v>
       </c>
       <c r="AV23" s="2">
         <f t="shared" si="65"/>
-        <v>539.03418187917134</v>
+        <v>534.14856559681493</v>
       </c>
       <c r="AW23" s="2">
         <f t="shared" si="65"/>
-        <v>593.08743351253963</v>
+        <v>588.25067339300699</v>
       </c>
       <c r="AX23" s="2">
         <f t="shared" si="65"/>
-        <v>610.56579328435816</v>
+        <v>605.77740076602061</v>
       </c>
       <c r="AY23" s="2">
         <f t="shared" si="65"/>
-        <v>625.73244604776414</v>
+        <v>620.99193745461002</v>
       </c>
       <c r="AZ23" s="2">
         <f t="shared" si="65"/>
-        <v>638.82420121391112</v>
+        <v>634.13109770668871</v>
       </c>
       <c r="BA23" s="2">
         <f t="shared" si="65"/>
-        <v>650.05413086573424</v>
-      </c>
-    </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
+        <v>645.40795839358395</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -4307,62 +4331,62 @@
       </c>
       <c r="X24" s="1">
         <f t="shared" si="66"/>
-        <v>4.3275419568209363</v>
+        <v>1.4472018232463917</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="66"/>
-        <v>2.0954376450771353</v>
+        <v>3.622597235118127</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="66"/>
-        <v>2.1392329656334095</v>
+        <v>4.1141032070941543</v>
       </c>
       <c r="AQ24" s="1">
         <f>+AQ23/AQ25</f>
-        <v>5.5283156516768983</v>
+        <v>6.9933893744123026</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" ref="AR24:BA24" si="67">+AR23/AR25</f>
-        <v>2.6800141637627437</v>
+        <v>2.6331271124877844</v>
       </c>
       <c r="AS24" s="1">
         <f t="shared" si="67"/>
-        <v>3.3034065622729849</v>
+        <v>3.2569883815107756</v>
       </c>
       <c r="AT24" s="1">
         <f t="shared" si="67"/>
-        <v>3.8903375301144965</v>
+        <v>3.8443835311599086</v>
       </c>
       <c r="AU24" s="1">
         <f t="shared" si="67"/>
-        <v>4.4445078714274695</v>
+        <v>4.3990134124624278</v>
       </c>
       <c r="AV24" s="1">
         <f t="shared" si="67"/>
-        <v>4.9692477633273535</v>
+        <v>4.9242082489519596</v>
       </c>
       <c r="AW24" s="1">
         <f t="shared" si="67"/>
-        <v>5.4675538240734145</v>
+        <v>5.4229647048417773</v>
       </c>
       <c r="AX24" s="1">
         <f t="shared" si="67"/>
-        <v>5.6286833092202571</v>
+        <v>5.5845400811809336</v>
       </c>
       <c r="AY24" s="1">
         <f t="shared" si="67"/>
-        <v>5.7685016321677463</v>
+        <v>5.7247998364088168</v>
       </c>
       <c r="AZ24" s="1">
         <f t="shared" si="67"/>
-        <v>5.8891918912726657</v>
+        <v>5.8459271134713262</v>
       </c>
       <c r="BA24" s="1">
         <f t="shared" si="67"/>
-        <v>5.9927183552347492</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5.9498862252114231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -4412,16 +4436,15 @@
         <v>97.361999999999995</v>
       </c>
       <c r="X25" s="2">
-        <f>+W25</f>
-        <v>97.361999999999995</v>
+        <v>106.623</v>
       </c>
       <c r="Y25" s="2">
         <f>+X25</f>
-        <v>97.361999999999995</v>
+        <v>106.623</v>
       </c>
       <c r="Z25" s="2">
         <f>+Y25</f>
-        <v>97.361999999999995</v>
+        <v>106.623</v>
       </c>
       <c r="AO25" s="2">
         <f>R25</f>
@@ -4476,7 +4499,7 @@
         <v>108.474</v>
       </c>
     </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:56" x14ac:dyDescent="0.25">
       <c r="BC26" t="s">
         <v>251</v>
       </c>
@@ -4484,358 +4507,401 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V27" s="22">
+        <f t="shared" ref="V27:W27" si="69">+V13/R13-1</f>
+        <v>0.65949226399449579</v>
+      </c>
+      <c r="W27" s="22">
+        <f t="shared" si="69"/>
+        <v>0.80265512837877062</v>
+      </c>
+      <c r="X27" s="22">
+        <f>+X13/T13-1</f>
+        <v>0.68376633574977075</v>
+      </c>
+      <c r="Y27" s="22">
+        <f>+Y13/U13-1</f>
+        <v>8.2154147786499543E-3</v>
+      </c>
+      <c r="Z27" s="22">
+        <f>+Z13/V13-1</f>
+        <v>-0.18756967066845875</v>
+      </c>
+      <c r="BD27" s="22"/>
+    </row>
+    <row r="28" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="R27" s="22">
-        <f t="shared" ref="R27:V27" si="69">+R15/R13</f>
+      <c r="R28" s="22">
+        <f t="shared" ref="R28:V28" si="70">+R15/R13</f>
         <v>0.88866402373097508</v>
       </c>
-      <c r="S27" s="22">
-        <f t="shared" si="69"/>
+      <c r="S28" s="22">
+        <f t="shared" si="70"/>
         <v>0.87771849544337588</v>
       </c>
-      <c r="T27" s="22">
-        <f t="shared" si="69"/>
+      <c r="T28" s="22">
+        <f t="shared" si="70"/>
         <v>0.87726317123640574</v>
       </c>
-      <c r="U27" s="22">
-        <f t="shared" si="69"/>
+      <c r="U28" s="22">
+        <f t="shared" si="70"/>
         <v>0.80374399883561887</v>
       </c>
-      <c r="V27" s="22">
-        <f t="shared" si="69"/>
+      <c r="V28" s="22">
+        <f t="shared" si="70"/>
         <v>0.79906903281165764</v>
       </c>
-      <c r="W27" s="22">
+      <c r="W28" s="22">
         <f>+W15/W13</f>
         <v>0.81543283337783246</v>
       </c>
-      <c r="X27" s="22">
+      <c r="X28" s="22">
         <f>+X15/X13</f>
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="Y27" s="22">
+        <v>0.75035142065584337</v>
+      </c>
+      <c r="Y28" s="22">
         <f>+Y15/Y13</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="Z27" s="22">
+      <c r="Z28" s="22">
         <f>+Z15/Z13</f>
-        <v>0.82</v>
-      </c>
-      <c r="AO27" s="22">
-        <f t="shared" ref="AO27" si="70">+AO15/AO13</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="AO28" s="22">
+        <f t="shared" ref="AO28" si="71">+AO15/AO13</f>
         <v>0.86868184851459884</v>
       </c>
-      <c r="AP27" s="22">
+      <c r="AP28" s="22">
         <f>+AP15/AP13</f>
         <v>0.821536191746009</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BC28" t="s">
         <v>250</v>
       </c>
-      <c r="BD27" s="2">
+      <c r="BD28" s="2">
         <f>NPV(BD26,AR23:BA23)+Main!L5-Main!L6</f>
-        <v>2804.4442387759409</v>
-      </c>
-    </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
-      <c r="AP28" s="22">
+        <v>2773.013654059022</v>
+      </c>
+    </row>
+    <row r="29" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="AP29" s="22">
         <f>+AP13/AO13-1</f>
         <v>0.56176913482333446</v>
       </c>
-      <c r="AQ28" s="22">
+      <c r="AQ29" s="22">
         <f>+AQ13/AP13-1</f>
-        <v>-8.9151089018541074E-2</v>
-      </c>
-      <c r="BD28" s="1">
-        <f>+BD27/Main!L3</f>
-        <v>28.911796276040629</v>
-      </c>
-    </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+        <v>0.10620111944305255</v>
+      </c>
+      <c r="BD29" s="1">
+        <f>+BD28/Main!L3</f>
+        <v>28.587769629474455</v>
+      </c>
+    </row>
+    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W30" s="2">
-        <f>+W31-W49</f>
+      <c r="W31" s="2">
+        <f>+W32-W50</f>
         <v>-352.03200000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W32" s="2">
         <f>240.867+281.895+154.37+109.125</f>
         <v>786.25699999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W33" s="2">
         <v>659.37099999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W34" s="2">
         <v>941.43200000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W35" s="2">
         <v>203.49</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W36" s="2">
         <v>105.47799999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W37" s="2">
         <v>360.58699999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W38" s="2">
         <v>147.06299999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W39" s="2">
         <v>181.15799999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W40" s="2">
         <v>80.551000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W40" s="2">
-        <f>SUM(W31:W39)</f>
+      <c r="W41" s="2">
+        <f>SUM(W32:W40)</f>
         <v>3465.3870000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W43" s="2">
         <v>156.10499999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W44" s="2">
         <v>391.65</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W45" s="2">
         <f>44.859+325</f>
         <v>369.85899999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W46" s="2">
         <v>12.974</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="W46" s="2">
+      <c r="W47" s="2">
         <v>205.46</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W48" s="2">
         <v>47.4</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="W48" s="2">
+      <c r="W49" s="2">
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="2">
+      <c r="W50" s="2">
         <v>1138.289</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>149</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W51" s="2">
         <v>1142.723</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="W51" s="2">
-        <f>SUM(W42:W50)</f>
+      <c r="W52" s="2">
+        <f>SUM(W43:W51)</f>
         <v>3465.3869999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>227</v>
       </c>
-      <c r="W53" s="2">
+      <c r="W54" s="2">
         <f>+W23</f>
         <v>224.98599999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="X54" s="2">
+        <f>+X23</f>
+        <v>154.30500000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>228</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W55" s="2">
         <v>-447.50799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="X55" s="2">
+        <f>-250.616-W55</f>
+        <v>196.89199999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>231</v>
       </c>
-      <c r="W55" s="2">
+      <c r="W56" s="2">
         <v>90.727999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="X56" s="2">
+        <f>54.007-W56</f>
+        <v>-36.720999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>235</v>
       </c>
-      <c r="W56" s="2">
+      <c r="W57" s="2">
         <v>41.427999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="X57" s="2">
+        <f>78.453-W57</f>
+        <v>37.025000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>232</v>
       </c>
-      <c r="W57" s="2">
+      <c r="W58" s="2">
         <v>9.9779999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+      <c r="X58" s="2">
+        <f>20.818-W58</f>
+        <v>10.840000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>144</v>
       </c>
-      <c r="W58" s="2">
+      <c r="W59" s="2">
         <v>3.9340000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="X59" s="2">
+        <f>7.956-W59</f>
+        <v>4.0220000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>233</v>
       </c>
-      <c r="W59" s="2">
+      <c r="W60" s="2">
         <v>-1.9119999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="X60" s="2">
+        <f>-3.778-W60</f>
+        <v>-1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>234</v>
       </c>
-      <c r="W60" s="2">
+      <c r="W61" s="2">
         <v>1.6919999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="X61" s="2">
+        <f>3.303-W61</f>
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>230</v>
       </c>
-      <c r="W61" s="2">
+      <c r="W62" s="2">
         <f>-57.383+71.136-177.359-15.067-85.397-17.707</f>
         <v>-281.77700000000004</v>
       </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="X62" s="2">
+        <f>74.693+68.869-236.548-37.258-59.825-42.174-W62</f>
+        <v>49.53400000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>229</v>
       </c>
-      <c r="W62" s="2">
-        <f>SUM(W54:W61)</f>
+      <c r="W63" s="2">
+        <f>SUM(W55:W62)</f>
         <v>-583.4369999999999</v>
       </c>
-    </row>
-    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="X63" s="2">
+        <f>SUM(X55:X62)</f>
+        <v>261.33699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="W64" s="2">
-        <v>-43.651000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4853,13 +4919,16 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="W65" s="2">
-        <f>-44.658+40.758</f>
-        <v>-3.8999999999999986</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-43.651000000000003</v>
+      </c>
+      <c r="X65" s="2">
+        <f>-75.447-W65</f>
+        <v>-31.795999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4877,12 +4946,17 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="W66" s="2">
-        <v>-2.238</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-44.658+40.758</f>
+        <v>-3.8999999999999986</v>
+      </c>
+      <c r="X66" s="2">
+        <f>-44.658+109.384-W66</f>
+        <v>68.626000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4900,12 +4974,16 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="W67" s="2">
-        <v>-241.38800000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-2.238</v>
+      </c>
+      <c r="X67" s="2">
+        <f>-2.426-W67</f>
+        <v>-0.18800000000000017</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4923,36 +5001,44 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="W68" s="2">
-        <f>SUM(W64:W67)</f>
+        <v>-241.38800000000001</v>
+      </c>
+      <c r="X68" s="2">
+        <f>-245.819-W68</f>
+        <v>-4.4309999999999832</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="W69" s="2">
+        <f>SUM(W65:W68)</f>
         <v>-291.17700000000002</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
+      <c r="X69" s="2">
+        <f>SUM(X65:X68)</f>
+        <v>32.21100000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="W70" s="2">
-        <v>15.680999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -4970,12 +5056,16 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="W71" s="2">
-        <v>-3.21</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15.680999999999999</v>
+      </c>
+      <c r="X71" s="2">
+        <f>17.181-W71</f>
+        <v>1.5000000000000018</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -4993,13 +5083,16 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="W72" s="2">
-        <f>W70+W71</f>
-        <v>12.471</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2">
+        <f>-25.013-W72</f>
+        <v>-25.013000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -5017,8 +5110,67 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="W73" s="2">
-        <f>+W72+W68+W62</f>
+        <v>-3.21</v>
+      </c>
+      <c r="X73" s="2">
+        <f>-3.514-W73</f>
+        <v>-0.30399999999999983</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="W74" s="2">
+        <f>SUM(W71:W73)</f>
+        <v>12.471</v>
+      </c>
+      <c r="X74" s="2">
+        <f>SUM(X71:X73)</f>
+        <v>-23.816999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="W75" s="2">
+        <f>+W74+W69+W63</f>
         <v>-862.14299999999992</v>
+      </c>
+      <c r="X75" s="2">
+        <f>+X74+X69+X63</f>
+        <v>269.73099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5040,18 +5192,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5059,7 +5211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -5067,7 +5219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5075,7 +5227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -5083,7 +5235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -5091,17 +5243,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +5261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -5117,22 +5269,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -5140,7 +5292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>141</v>
       </c>
@@ -5148,53 +5300,53 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
         <v>96</v>
@@ -5203,185 +5355,185 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C35" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C60" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C75" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C80" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C84" s="19" t="s">
         <v>190</v>
       </c>
@@ -5401,18 +5553,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5420,12 +5572,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5433,17 +5585,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>207</v>
       </c>
@@ -5462,18 +5614,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5481,12 +5633,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5494,17 +5646,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>205</v>
       </c>
@@ -5523,19 +5675,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5543,7 +5695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -5551,7 +5703,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5559,7 +5711,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>179</v>
       </c>
@@ -5567,7 +5719,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -5575,32 +5727,32 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>137</v>
       </c>
@@ -5617,7 +5769,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>128</v>
       </c>
@@ -5634,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>129</v>
       </c>
@@ -5651,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>130</v>
       </c>
@@ -5668,7 +5820,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>131</v>
       </c>
@@ -5685,7 +5837,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>132</v>
       </c>
@@ -5702,7 +5854,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -5719,7 +5871,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>136</v>
       </c>
@@ -5727,7 +5879,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>128</v>
       </c>
@@ -5744,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>129</v>
       </c>
@@ -5761,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>130</v>
       </c>
@@ -5778,7 +5930,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>131</v>
       </c>
@@ -5795,7 +5947,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>132</v>
       </c>
@@ -5812,7 +5964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -5829,7 +5981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="19" t="s">
         <v>225</v>
       </c>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651E8A0-2736-4F60-8AD6-3C6A69982E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52EB995-E08B-46DE-BC9C-BC1C7098F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42020" yWindow="5430" windowWidth="25050" windowHeight="15270" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="41830" yWindow="9950" windowWidth="34230" windowHeight="15680" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/6/25 consensus 788m</t>
+    5/6/25 consensus 788m
+11/3/25 consensus: 336m</t>
       </text>
     </comment>
     <comment ref="Z13" authorId="4" shapeId="0" xr:uid="{7C3EC1BA-FB3C-4FE0-8E5F-1192557AF098}">
@@ -89,7 +90,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/6/25 consensus 828m</t>
+    5/6/25 consensus 828m
+11/3/25 consensus: 351m</t>
       </text>
     </comment>
     <comment ref="AQ13" authorId="5" shapeId="0" xr:uid="{79BDC40B-94ED-4D00-94B2-1CB4305DAAA9}">
@@ -1766,10 +1768,12 @@
     <text>5/6/25 consensus 741m</text>
   </threadedComment>
   <threadedComment ref="Y13" dT="2025-05-06T15:45:47.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{5AFD68C2-EA74-46FE-BF40-AB537FB76AE8}">
-    <text>5/6/25 consensus 788m</text>
+    <text>5/6/25 consensus 788m
+11/3/25 consensus: 336m</text>
   </threadedComment>
   <threadedComment ref="Z13" dT="2025-05-06T15:45:57.63" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{7C3EC1BA-FB3C-4FE0-8E5F-1192557AF098}">
-    <text>5/6/25 consensus 828m</text>
+    <text>5/6/25 consensus 828m
+11/3/25 consensus: 351m</text>
   </threadedComment>
   <threadedComment ref="AQ13" dT="2025-05-06T15:53:17.18" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{79BDC40B-94ED-4D00-94B2-1CB4305DAAA9}">
     <text>Q424 product guidance: 2.9-3.1B
@@ -2216,7 +2220,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2430,11 +2434,11 @@
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="9"/>
-        <v>46.875</v>
+        <v>41.09375</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="9"/>
-        <v>62.5</v>
+        <v>31.25</v>
       </c>
       <c r="AP3" s="2">
         <f>+AP6/3.2</f>
@@ -2442,7 +2446,7 @@
       </c>
       <c r="AQ3" s="2">
         <f>+AQ6/3.2</f>
-        <v>314.64093750000001</v>
+        <v>277.60968750000001</v>
       </c>
       <c r="AR3">
         <v>800</v>
@@ -2496,58 +2500,58 @@
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="10"/>
-        <v>852.14093749999995</v>
+        <v>846.35968749999995</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>914.64093749999995</v>
+        <v>877.60968749999995</v>
       </c>
       <c r="AP4" s="2">
         <v>600</v>
       </c>
       <c r="AQ4" s="2">
         <f>+AP4+AQ3</f>
-        <v>914.64093750000006</v>
+        <v>877.60968750000006</v>
       </c>
       <c r="AR4" s="2">
         <f>+AQ4+AR3</f>
-        <v>1714.6409375000001</v>
+        <v>1677.6096875000001</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
-        <v>2514.6409375000003</v>
+        <v>2477.6096875000003</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" si="11"/>
-        <v>3314.6409375000003</v>
+        <v>3277.6096875000003</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="11"/>
-        <v>4114.6409375000003</v>
+        <v>4077.6096875000003</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" si="11"/>
-        <v>4914.6409375000003</v>
+        <v>4877.6096875000003</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" si="11"/>
-        <v>5714.6409375000003</v>
+        <v>5677.6096875000003</v>
       </c>
       <c r="AX4" s="2">
         <f t="shared" si="11"/>
-        <v>6514.6409375000003</v>
+        <v>6477.6096875000003</v>
       </c>
       <c r="AY4" s="2">
         <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
-        <v>7314.6409375000003</v>
+        <v>7277.6096875000003</v>
       </c>
       <c r="AZ4" s="2">
         <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
-        <v>8114.6409375000003</v>
+        <v>8077.6096875000003</v>
       </c>
       <c r="BA4" s="2">
         <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
-        <v>8914.6409375000003</v>
+        <v>8877.6096875000003</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
@@ -2608,10 +2612,10 @@
         <v>281.851</v>
       </c>
       <c r="Y6" s="2">
-        <v>150</v>
+        <v>131.5</v>
       </c>
       <c r="Z6" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AO6" s="2">
         <f>SUM(O6:R6)</f>
@@ -2623,7 +2627,7 @@
       </c>
       <c r="AQ6" s="2">
         <f>SUM(W6:Z6)</f>
-        <v>1006.851</v>
+        <v>888.351</v>
       </c>
       <c r="AR6" s="2">
         <v>50</v>
@@ -2705,12 +2709,11 @@
         <v>231.27199999999999</v>
       </c>
       <c r="Y7" s="2">
-        <f>+U7</f>
-        <v>248.8</v>
+        <v>238.5</v>
       </c>
       <c r="Z7" s="2">
-        <f>+V7</f>
-        <v>254</v>
+        <f>+V7*0.8</f>
+        <v>203.20000000000002</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" ref="AH7:AN7" si="15">+AH13</f>
@@ -2750,47 +2753,47 @@
       </c>
       <c r="AQ7" s="2">
         <f t="shared" ref="AQ7" si="18">SUM(W7:Z7)</f>
-        <v>971.072</v>
+        <v>909.97199999999998</v>
       </c>
       <c r="AR7" s="2">
         <f>+AQ7*0.99</f>
-        <v>961.36127999999997</v>
+        <v>900.87227999999993</v>
       </c>
       <c r="AS7" s="2">
         <f t="shared" ref="AS7:BA7" si="19">+AR7*0.99</f>
-        <v>951.74766719999991</v>
+        <v>891.86355719999995</v>
       </c>
       <c r="AT7" s="2">
         <f t="shared" si="19"/>
-        <v>942.23019052799987</v>
+        <v>882.94492162799997</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" si="19"/>
-        <v>932.80788862271982</v>
+        <v>874.11547241172002</v>
       </c>
       <c r="AV7" s="2">
         <f t="shared" si="19"/>
-        <v>923.4798097364926</v>
+        <v>865.3743176876028</v>
       </c>
       <c r="AW7" s="2">
         <f t="shared" si="19"/>
-        <v>914.24501163912771</v>
+        <v>856.72057451072681</v>
       </c>
       <c r="AX7" s="2">
         <f t="shared" si="19"/>
-        <v>905.10256152273644</v>
+        <v>848.15336876561958</v>
       </c>
       <c r="AY7" s="2">
         <f t="shared" si="19"/>
-        <v>896.05153590750911</v>
+        <v>839.67183507796335</v>
       </c>
       <c r="AZ7" s="2">
         <f t="shared" si="19"/>
-        <v>887.09102054843402</v>
+        <v>831.27511672718367</v>
       </c>
       <c r="BA7" s="2">
         <f t="shared" si="19"/>
-        <v>878.22011034294962</v>
+        <v>822.96236555991186</v>
       </c>
     </row>
     <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2928,11 +2931,11 @@
       </c>
       <c r="Y11" s="2">
         <f>+Y7+Y6</f>
-        <v>398.8</v>
+        <v>370</v>
       </c>
       <c r="Z11" s="2">
         <f>+Z7+Z6</f>
-        <v>454</v>
+        <v>303.20000000000005</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" ref="AO11:AP11" si="20">+AO7+AO6</f>
@@ -2944,47 +2947,47 @@
       </c>
       <c r="AQ11" s="2">
         <f>+AQ7+AQ6</f>
-        <v>1977.923</v>
+        <v>1798.3229999999999</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ref="AR11:BA11" si="21">+AR7+AR6</f>
-        <v>1011.36128</v>
+        <v>950.87227999999993</v>
       </c>
       <c r="AS11" s="2">
         <f t="shared" si="21"/>
-        <v>1051.7476671999998</v>
+        <v>991.86355719999995</v>
       </c>
       <c r="AT11" s="2">
         <f t="shared" si="21"/>
-        <v>1092.2301905279999</v>
+        <v>1032.944921628</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" si="21"/>
-        <v>1132.8078886227199</v>
+        <v>1074.11547241172</v>
       </c>
       <c r="AV11" s="2">
         <f t="shared" si="21"/>
-        <v>1173.4798097364926</v>
+        <v>1115.3743176876028</v>
       </c>
       <c r="AW11" s="2">
         <f t="shared" si="21"/>
-        <v>1214.2450116391278</v>
+        <v>1156.7205745107267</v>
       </c>
       <c r="AX11" s="2">
         <f t="shared" si="21"/>
-        <v>1205.1025615227363</v>
+        <v>1148.1533687656197</v>
       </c>
       <c r="AY11" s="2">
         <f t="shared" si="21"/>
-        <v>1196.0515359075091</v>
+        <v>1139.6718350779634</v>
       </c>
       <c r="AZ11" s="2">
         <f t="shared" si="21"/>
-        <v>1187.091020548434</v>
+        <v>1131.2751167271836</v>
       </c>
       <c r="BA11" s="2">
         <f t="shared" si="21"/>
-        <v>1178.2201103429497</v>
+        <v>1122.9623655599119</v>
       </c>
     </row>
     <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3040,12 +3043,11 @@
         <v>97.968000000000004</v>
       </c>
       <c r="Y12" s="2">
-        <f>AVERAGE(U12:X12)</f>
-        <v>72.239249999999998</v>
+        <v>29.312999999999999</v>
       </c>
       <c r="Z12" s="2">
-        <f>AVERAGE(V12:Y12)</f>
-        <v>80.948812500000003</v>
+        <f>+Y12</f>
+        <v>29.312999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:53" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -3115,11 +3117,11 @@
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="22"/>
-        <v>471.03925000000004</v>
+        <v>399.31299999999999</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="22"/>
-        <v>534.94881250000003</v>
+        <v>332.51300000000003</v>
       </c>
       <c r="AH13" s="6">
         <v>5.4</v>
@@ -3152,47 +3154,47 @@
       </c>
       <c r="AQ13" s="6">
         <f t="shared" si="23"/>
-        <v>1977.923</v>
+        <v>1798.3229999999999</v>
       </c>
       <c r="AR13" s="6">
         <f t="shared" ref="AR13:BA13" si="24">+AR11+AR12</f>
-        <v>1011.36128</v>
+        <v>950.87227999999993</v>
       </c>
       <c r="AS13" s="6">
         <f t="shared" si="24"/>
-        <v>1051.7476671999998</v>
+        <v>991.86355719999995</v>
       </c>
       <c r="AT13" s="6">
         <f t="shared" si="24"/>
-        <v>1092.2301905279999</v>
+        <v>1032.944921628</v>
       </c>
       <c r="AU13" s="6">
         <f t="shared" si="24"/>
-        <v>1132.8078886227199</v>
+        <v>1074.11547241172</v>
       </c>
       <c r="AV13" s="6">
         <f t="shared" si="24"/>
-        <v>1173.4798097364926</v>
+        <v>1115.3743176876028</v>
       </c>
       <c r="AW13" s="6">
         <f t="shared" si="24"/>
-        <v>1214.2450116391278</v>
+        <v>1156.7205745107267</v>
       </c>
       <c r="AX13" s="6">
         <f t="shared" si="24"/>
-        <v>1205.1025615227363</v>
+        <v>1148.1533687656197</v>
       </c>
       <c r="AY13" s="6">
         <f t="shared" si="24"/>
-        <v>1196.0515359075091</v>
+        <v>1139.6718350779634</v>
       </c>
       <c r="AZ13" s="6">
         <f t="shared" si="24"/>
-        <v>1187.091020548434</v>
+        <v>1131.2751167271836</v>
       </c>
       <c r="BA13" s="6">
         <f t="shared" si="24"/>
-        <v>1178.2201103429497</v>
+        <v>1122.9623655599119</v>
       </c>
     </row>
     <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3248,12 +3250,11 @@
         <v>152.55799999999999</v>
       </c>
       <c r="Y14" s="2">
-        <f>+Y13*0.18</f>
-        <v>84.787064999999998</v>
+        <v>150.77500000000001</v>
       </c>
       <c r="Z14" s="2">
         <f>+Z13*0.18</f>
-        <v>96.290786249999996</v>
+        <v>59.852340000000005</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" ref="AO14:AO17" si="25">SUM(O14:R14)</f>
@@ -3265,47 +3266,47 @@
       </c>
       <c r="AQ14" s="2">
         <f t="shared" ref="AQ14" si="27">SUM(W14:Z14)</f>
-        <v>471.19985124999994</v>
+        <v>500.74933999999996</v>
       </c>
       <c r="AR14" s="2">
         <f>+AR13-AR15</f>
-        <v>151.70419200000003</v>
+        <v>142.63084200000003</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" ref="AS14:BA14" si="28">+AS13-AS15</f>
-        <v>157.76215007999997</v>
+        <v>148.77953358000002</v>
       </c>
       <c r="AT14" s="2">
         <f t="shared" si="28"/>
-        <v>163.83452857919997</v>
+        <v>154.9417382442</v>
       </c>
       <c r="AU14" s="2">
         <f t="shared" si="28"/>
-        <v>169.92118329340803</v>
+        <v>161.117320861758</v>
       </c>
       <c r="AV14" s="2">
         <f t="shared" si="28"/>
-        <v>176.02197146047388</v>
+        <v>167.30614765314044</v>
       </c>
       <c r="AW14" s="2">
         <f t="shared" si="28"/>
-        <v>182.13675174586911</v>
+        <v>173.50808617660903</v>
       </c>
       <c r="AX14" s="2">
         <f t="shared" si="28"/>
-        <v>180.76538422841054</v>
+        <v>172.22300531484302</v>
       </c>
       <c r="AY14" s="2">
         <f t="shared" si="28"/>
-        <v>179.40773038612645</v>
+        <v>170.9507752616945</v>
       </c>
       <c r="AZ14" s="2">
         <f t="shared" si="28"/>
-        <v>178.06365308226509</v>
+        <v>169.69126750907753</v>
       </c>
       <c r="BA14" s="2">
         <f t="shared" si="28"/>
-        <v>176.73301655144246</v>
+        <v>168.44435483398684</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3375,11 +3376,11 @@
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="30"/>
-        <v>386.25218500000005</v>
+        <v>248.53799999999998</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="30"/>
-        <v>438.65802625000003</v>
+        <v>272.66066000000001</v>
       </c>
       <c r="AO15" s="2">
         <f>+AO13-AO14</f>
@@ -3391,47 +3392,47 @@
       </c>
       <c r="AQ15" s="2">
         <f>+AQ13-AQ14</f>
-        <v>1506.7231487500001</v>
+        <v>1297.57366</v>
       </c>
       <c r="AR15" s="2">
         <f>+AR13*0.85</f>
-        <v>859.65708799999993</v>
+        <v>808.2414379999999</v>
       </c>
       <c r="AS15" s="2">
         <f t="shared" ref="AS15:BA15" si="31">+AS13*0.85</f>
-        <v>893.98551711999983</v>
+        <v>843.08402361999993</v>
       </c>
       <c r="AT15" s="2">
         <f t="shared" si="31"/>
-        <v>928.3956619487999</v>
+        <v>878.00318338379998</v>
       </c>
       <c r="AU15" s="2">
         <f t="shared" si="31"/>
-        <v>962.88670532931189</v>
+        <v>912.99815154996202</v>
       </c>
       <c r="AV15" s="2">
         <f t="shared" si="31"/>
-        <v>997.45783827601872</v>
+        <v>948.06817003446236</v>
       </c>
       <c r="AW15" s="2">
         <f t="shared" si="31"/>
-        <v>1032.1082598932587</v>
+        <v>983.21248833411767</v>
       </c>
       <c r="AX15" s="2">
         <f t="shared" si="31"/>
-        <v>1024.3371772943258</v>
+        <v>975.93036345077667</v>
       </c>
       <c r="AY15" s="2">
         <f t="shared" si="31"/>
-        <v>1016.6438055213827</v>
+        <v>968.72105981626885</v>
       </c>
       <c r="AZ15" s="2">
         <f t="shared" si="31"/>
-        <v>1009.0273674661689</v>
+        <v>961.58384921810602</v>
       </c>
       <c r="BA15" s="2">
         <f t="shared" si="31"/>
-        <v>1001.4870937915073</v>
+        <v>954.51801072592502</v>
       </c>
     </row>
     <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3487,6 +3488,9 @@
       <c r="X16" s="2">
         <v>204.392</v>
       </c>
+      <c r="Y16" s="2">
+        <v>218.89</v>
+      </c>
       <c r="AO16" s="2">
         <f t="shared" si="25"/>
         <v>877.38699999999994</v>
@@ -3547,6 +3551,9 @@
       </c>
       <c r="X17" s="2">
         <v>137.89699999999999</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>91.893000000000001</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="25"/>
@@ -3668,7 +3675,7 @@
       </c>
       <c r="Y18" s="2">
         <f>+Y17+Y16</f>
-        <v>0</v>
+        <v>310.78300000000002</v>
       </c>
       <c r="Z18" s="2">
         <f>+Z17+Z16</f>
@@ -3794,11 +3801,11 @@
       </c>
       <c r="Y19" s="2">
         <f>+Y15-Y18</f>
-        <v>386.25218500000005</v>
+        <v>-62.245000000000033</v>
       </c>
       <c r="Z19" s="2">
         <f>+Z15-Z18</f>
-        <v>438.65802625000003</v>
+        <v>272.66066000000001</v>
       </c>
       <c r="AO19" s="2">
         <f>+AO15-AO18</f>
@@ -3810,47 +3817,47 @@
       </c>
       <c r="AQ19" s="2">
         <f>+AQ15-AQ18</f>
-        <v>948.25114875000008</v>
+        <v>739.10166000000004</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" ref="AR19" si="47">+AR15-AR18</f>
-        <v>357.03228799999994</v>
+        <v>305.61663799999991</v>
       </c>
       <c r="AS19" s="2">
         <f t="shared" ref="AS19" si="48">+AS15-AS18</f>
-        <v>441.62319711999982</v>
+        <v>390.72170361999991</v>
       </c>
       <c r="AT19" s="2">
         <f t="shared" ref="AT19" si="49">+AT15-AT18</f>
-        <v>521.26957394879992</v>
+        <v>470.87709538379994</v>
       </c>
       <c r="AU19" s="2">
         <f t="shared" ref="AU19" si="50">+AU15-AU18</f>
-        <v>596.4732261293118</v>
+        <v>546.58467234996192</v>
       </c>
       <c r="AV19" s="2">
         <f t="shared" ref="AV19" si="51">+AV15-AV18</f>
-        <v>667.68570699601867</v>
+        <v>618.2960387544623</v>
       </c>
       <c r="AW19" s="2">
         <f t="shared" ref="AW19" si="52">+AW15-AW18</f>
-        <v>735.31334174125868</v>
+        <v>686.41757018211763</v>
       </c>
       <c r="AX19" s="2">
         <f t="shared" ref="AX19" si="53">+AX15-AX18</f>
-        <v>757.22175095752573</v>
+        <v>708.81493711397661</v>
       </c>
       <c r="AY19" s="2">
         <f t="shared" ref="AY19" si="54">+AY15-AY18</f>
-        <v>776.23992181826259</v>
+        <v>728.31717611314878</v>
       </c>
       <c r="AZ19" s="2">
         <f t="shared" ref="AZ19" si="55">+AZ15-AZ18</f>
-        <v>792.66387213336088</v>
+        <v>745.22035388529798</v>
       </c>
       <c r="BA19" s="2">
         <f t="shared" ref="BA19" si="56">+BA15-BA18</f>
-        <v>806.75994799197997</v>
+        <v>759.79086492639772</v>
       </c>
     </row>
     <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3904,6 +3911,9 @@
       </c>
       <c r="X20" s="2">
         <v>38.061</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" ref="AO20" si="57">SUM(O20:R20)</f>
@@ -3981,11 +3991,11 @@
       </c>
       <c r="Y21" s="2">
         <f>+Y19+Y20</f>
-        <v>386.25218500000005</v>
+        <v>-62.245000000000033</v>
       </c>
       <c r="Z21" s="2">
         <f>+Z19+Z20</f>
-        <v>438.65802625000003</v>
+        <v>272.66066000000001</v>
       </c>
       <c r="AO21" s="2">
         <f>+AO19+AO20</f>
@@ -3997,47 +4007,47 @@
       </c>
       <c r="AQ21" s="2">
         <f>+AQ19+AQ20</f>
-        <v>948.25114875000008</v>
+        <v>739.10166000000004</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" ref="AR21:BA21" si="60">+AR19+AR20</f>
-        <v>357.03228799999994</v>
+        <v>305.61663799999991</v>
       </c>
       <c r="AS21" s="2">
         <f t="shared" si="60"/>
-        <v>441.62319711999982</v>
+        <v>390.72170361999991</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" si="60"/>
-        <v>521.26957394879992</v>
+        <v>470.87709538379994</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" si="60"/>
-        <v>596.4732261293118</v>
+        <v>546.58467234996192</v>
       </c>
       <c r="AV21" s="2">
         <f t="shared" si="60"/>
-        <v>667.68570699601867</v>
+        <v>618.2960387544623</v>
       </c>
       <c r="AW21" s="2">
         <f t="shared" si="60"/>
-        <v>735.31334174125868</v>
+        <v>686.41757018211763</v>
       </c>
       <c r="AX21" s="2">
         <f t="shared" si="60"/>
-        <v>757.22175095752573</v>
+        <v>708.81493711397661</v>
       </c>
       <c r="AY21" s="2">
         <f t="shared" si="60"/>
-        <v>776.23992181826259</v>
+        <v>728.31717611314878</v>
       </c>
       <c r="AZ21" s="2">
         <f t="shared" si="60"/>
-        <v>792.66387213336088</v>
+        <v>745.22035388529798</v>
       </c>
       <c r="BA21" s="2">
         <f t="shared" si="60"/>
-        <v>806.75994799197997</v>
+        <v>759.79086492639772</v>
       </c>
     </row>
     <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4108,47 +4118,47 @@
       </c>
       <c r="AQ22" s="2">
         <f>+AQ21*0.2</f>
-        <v>189.65022975000002</v>
+        <v>147.82033200000001</v>
       </c>
       <c r="AR22" s="2">
         <f t="shared" ref="AR22:BA22" si="63">+AR21*0.2</f>
-        <v>71.406457599999996</v>
+        <v>61.123327599999982</v>
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="63"/>
-        <v>88.324639423999969</v>
+        <v>78.144340723999989</v>
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="63"/>
-        <v>104.25391478975999</v>
+        <v>94.175419076759994</v>
       </c>
       <c r="AU22" s="2">
         <f t="shared" si="63"/>
-        <v>119.29464522586237</v>
+        <v>109.31693446999239</v>
       </c>
       <c r="AV22" s="2">
         <f t="shared" si="63"/>
-        <v>133.53714139920373</v>
+        <v>123.65920775089246</v>
       </c>
       <c r="AW22" s="2">
         <f t="shared" si="63"/>
-        <v>147.06266834825175</v>
+        <v>137.28351403642353</v>
       </c>
       <c r="AX22" s="2">
         <f t="shared" si="63"/>
-        <v>151.44435019150515</v>
+        <v>141.76298742279533</v>
       </c>
       <c r="AY22" s="2">
         <f t="shared" si="63"/>
-        <v>155.24798436365253</v>
+        <v>145.66343522262977</v>
       </c>
       <c r="AZ22" s="2">
         <f t="shared" si="63"/>
-        <v>158.53277442667218</v>
+        <v>149.0440707770596</v>
       </c>
       <c r="BA22" s="2">
         <f t="shared" si="63"/>
-        <v>161.35198959839602</v>
+        <v>151.95817298527956</v>
       </c>
     </row>
     <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4218,11 +4228,11 @@
       </c>
       <c r="Y23" s="2">
         <f>+Y21-Y22</f>
-        <v>386.25218500000005</v>
+        <v>-62.245000000000033</v>
       </c>
       <c r="Z23" s="2">
         <f>+Z21-Z22</f>
-        <v>438.65802625000003</v>
+        <v>272.66066000000001</v>
       </c>
       <c r="AO23" s="2">
         <f>+AO21-AO22</f>
@@ -4234,47 +4244,47 @@
       </c>
       <c r="AQ23" s="2">
         <f>+AQ21-AQ22</f>
-        <v>758.60091900000009</v>
+        <v>591.28132800000003</v>
       </c>
       <c r="AR23" s="2">
         <f t="shared" ref="AR23:BA23" si="65">+AR21-AR22</f>
-        <v>285.62583039999993</v>
+        <v>244.49331039999993</v>
       </c>
       <c r="AS23" s="2">
         <f t="shared" si="65"/>
-        <v>353.29855769599988</v>
+        <v>312.57736289599995</v>
       </c>
       <c r="AT23" s="2">
         <f t="shared" si="65"/>
-        <v>417.01565915903996</v>
+        <v>376.70167630703997</v>
       </c>
       <c r="AU23" s="2">
         <f t="shared" si="65"/>
-        <v>477.17858090344942</v>
+        <v>437.26773787996956</v>
       </c>
       <c r="AV23" s="2">
         <f t="shared" si="65"/>
-        <v>534.14856559681493</v>
+        <v>494.63683100356985</v>
       </c>
       <c r="AW23" s="2">
         <f t="shared" si="65"/>
-        <v>588.25067339300699</v>
+        <v>549.1340561456941</v>
       </c>
       <c r="AX23" s="2">
         <f t="shared" si="65"/>
-        <v>605.77740076602061</v>
+        <v>567.05194969118133</v>
       </c>
       <c r="AY23" s="2">
         <f t="shared" si="65"/>
-        <v>620.99193745461002</v>
+        <v>582.65374089051897</v>
       </c>
       <c r="AZ23" s="2">
         <f t="shared" si="65"/>
-        <v>634.13109770668871</v>
+        <v>596.17628310823841</v>
       </c>
       <c r="BA23" s="2">
         <f t="shared" si="65"/>
-        <v>645.40795839358395</v>
+        <v>607.83269194111813</v>
       </c>
     </row>
     <row r="24" spans="2:56" x14ac:dyDescent="0.25">
@@ -4335,55 +4345,55 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="66"/>
-        <v>3.622597235118127</v>
+        <v>-0.62097828147290957</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="66"/>
-        <v>4.1141032070941543</v>
+        <v>2.7201598212236999</v>
       </c>
       <c r="AQ24" s="1">
         <f>+AQ23/AQ25</f>
-        <v>6.9933893744123026</v>
+        <v>5.4509037004259087</v>
       </c>
       <c r="AR24" s="1">
         <f t="shared" ref="AR24:BA24" si="67">+AR23/AR25</f>
-        <v>2.6331271124877844</v>
+        <v>2.2539346792779829</v>
       </c>
       <c r="AS24" s="1">
         <f t="shared" si="67"/>
-        <v>3.2569883815107756</v>
+        <v>2.881587872633073</v>
       </c>
       <c r="AT24" s="1">
         <f t="shared" si="67"/>
-        <v>3.8443835311599086</v>
+        <v>3.4727370273709828</v>
       </c>
       <c r="AU24" s="1">
         <f t="shared" si="67"/>
-        <v>4.3990134124624278</v>
+        <v>4.0310833737113922</v>
       </c>
       <c r="AV24" s="1">
         <f t="shared" si="67"/>
-        <v>4.9242082489519596</v>
+        <v>4.5599575105884345</v>
       </c>
       <c r="AW24" s="1">
         <f t="shared" si="67"/>
-        <v>5.4229647048417773</v>
+        <v>5.0623564738618851</v>
       </c>
       <c r="AX24" s="1">
         <f t="shared" si="67"/>
-        <v>5.5845400811809336</v>
+        <v>5.2275379325108444</v>
       </c>
       <c r="AY24" s="1">
         <f t="shared" si="67"/>
-        <v>5.7247998364088168</v>
+        <v>5.3713677092254271</v>
       </c>
       <c r="AZ24" s="1">
         <f t="shared" si="67"/>
-        <v>5.8459271134713262</v>
+        <v>5.4960293075597688</v>
       </c>
       <c r="BA24" s="1">
         <f t="shared" si="67"/>
-        <v>5.9498862252114231</v>
+        <v>5.6034873973589807</v>
       </c>
     </row>
     <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4439,12 +4449,11 @@
         <v>106.623</v>
       </c>
       <c r="Y25" s="2">
-        <f>+X25</f>
-        <v>106.623</v>
+        <v>100.23699999999999</v>
       </c>
       <c r="Z25" s="2">
         <f>+Y25</f>
-        <v>106.623</v>
+        <v>100.23699999999999</v>
       </c>
       <c r="AO25" s="2">
         <f>R25</f>
@@ -4525,11 +4534,11 @@
       </c>
       <c r="Y27" s="22">
         <f>+Y13/U13-1</f>
-        <v>8.2154147786499543E-3</v>
+        <v>-0.14530790815944317</v>
       </c>
       <c r="Z27" s="22">
         <f>+Z13/V13-1</f>
-        <v>-0.18756967066845875</v>
+        <v>-0.4950102892376852</v>
       </c>
       <c r="BD27" s="22"/>
     </row>
@@ -4567,11 +4576,11 @@
       </c>
       <c r="Y28" s="22">
         <f>+Y15/Y13</f>
-        <v>0.82000000000000006</v>
+        <v>0.62241399603819558</v>
       </c>
       <c r="Z28" s="22">
         <f>+Z15/Z13</f>
-        <v>0.82000000000000006</v>
+        <v>0.82</v>
       </c>
       <c r="AO28" s="22">
         <f t="shared" ref="AO28" si="71">+AO15/AO13</f>
@@ -4586,7 +4595,7 @@
       </c>
       <c r="BD28" s="2">
         <f>NPV(BD26,AR23:BA23)+Main!L5-Main!L6</f>
-        <v>2773.013654059022</v>
+        <v>2518.8232204119381</v>
       </c>
     </row>
     <row r="29" spans="2:56" x14ac:dyDescent="0.25">
@@ -4596,11 +4605,11 @@
       </c>
       <c r="AQ29" s="22">
         <f>+AQ13/AP13-1</f>
-        <v>0.10620111944305255</v>
+        <v>5.755489834633698E-3</v>
       </c>
       <c r="BD29" s="1">
         <f>+BD28/Main!L3</f>
-        <v>28.587769629474455</v>
+        <v>25.967249694968434</v>
       </c>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
@@ -4611,6 +4620,14 @@
         <f>+W32-W50</f>
         <v>-352.03200000000004</v>
       </c>
+      <c r="X31" s="2">
+        <f>+X32-X50</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <f>+Y32-Y50</f>
+        <v>-183.15300000000002</v>
+      </c>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -4620,72 +4637,101 @@
         <f>240.867+281.895+154.37+109.125</f>
         <v>786.25699999999995</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y32" s="2">
+        <f>613.077+237.916+1</f>
+        <v>851.99299999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>139</v>
       </c>
       <c r="W33" s="2">
         <v>659.37099999999998</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y33" s="2">
+        <v>395.73899999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>140</v>
       </c>
       <c r="W34" s="2">
         <v>941.43200000000002</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y34" s="2">
+        <f>1077.166</f>
+        <v>1077.1659999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>141</v>
       </c>
       <c r="W35" s="2">
         <v>203.49</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y35" s="2">
+        <v>206.06200000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>142</v>
       </c>
       <c r="W36" s="2">
         <v>105.47799999999999</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y36" s="2">
+        <v>192.34899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>143</v>
       </c>
       <c r="W37" s="2">
         <v>360.58699999999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y37" s="2">
+        <v>358.93599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>144</v>
       </c>
       <c r="W38" s="2">
         <v>147.06299999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y38" s="2">
+        <v>139.167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>145</v>
       </c>
       <c r="W39" s="2">
         <v>181.15799999999999</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y39" s="2">
+        <v>198.601</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>146</v>
       </c>
       <c r="W40" s="2">
         <v>80.551000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y40" s="2">
+        <v>73.384</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>147</v>
       </c>
@@ -4693,24 +4739,38 @@
         <f>SUM(W32:W40)</f>
         <v>3465.3870000000002</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="2">
+        <f>SUM(X32:X40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <f>SUM(Y32:Y40)</f>
+        <v>3493.3970000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>150</v>
       </c>
       <c r="W43" s="2">
         <v>156.10499999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y43" s="2">
+        <v>94.015000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>151</v>
       </c>
       <c r="W44" s="2">
         <v>391.65</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y44" s="2">
+        <v>295.79300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>152</v>
       </c>
@@ -4718,56 +4778,78 @@
         <f>44.859+325</f>
         <v>369.85899999999998</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y45" s="2">
+        <v>485.44900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>153</v>
       </c>
       <c r="W46" s="2">
         <v>12.974</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y46" s="2">
+        <v>10.167999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>154</v>
       </c>
       <c r="W47" s="2">
         <v>205.46</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Y47" s="2">
+        <v>215.042</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>155</v>
       </c>
       <c r="W48" s="2">
         <v>47.4</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y48" s="2">
+        <f>36+0.3</f>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>156</v>
       </c>
       <c r="W49" s="2">
         <v>0.92700000000000005</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y49" s="2">
+        <v>1.4039999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="W50" s="2">
         <v>1138.289</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y50" s="2">
+        <v>1035.146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>149</v>
       </c>
       <c r="W51" s="2">
         <v>1142.723</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <v>1320.12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>148</v>
       </c>
@@ -4775,8 +4857,16 @@
         <f>SUM(W43:W51)</f>
         <v>3465.3869999999997</v>
       </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X52" s="2">
+        <f>SUM(X43:X51)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>SUM(Y43:Y51)</f>
+        <v>3493.4369999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>227</v>
       </c>
@@ -4788,8 +4878,12 @@
         <f>+X23</f>
         <v>154.30500000000004</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y54" s="2">
+        <f>+Y23</f>
+        <v>-62.245000000000033</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>228</v>
       </c>
@@ -4801,7 +4895,7 @@
         <v>196.89199999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>231</v>
       </c>
@@ -4813,7 +4907,7 @@
         <v>-36.720999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>235</v>
       </c>
@@ -4825,7 +4919,7 @@
         <v>37.025000000000006</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>232</v>
       </c>
@@ -4837,7 +4931,7 @@
         <v>10.840000000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>144</v>
       </c>
@@ -4849,7 +4943,7 @@
         <v>4.0220000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>233</v>
       </c>
@@ -4861,7 +4955,7 @@
         <v>-1.8660000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>234</v>
       </c>
@@ -4873,7 +4967,7 @@
         <v>1.611</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>230</v>
       </c>
@@ -4886,7 +4980,7 @@
         <v>49.53400000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>229</v>
       </c>
